--- a/xls/american.xlsx
+++ b/xls/american.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\Spring2023\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1799919-0D43-44C6-972B-DE6E565EDA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA85C-66C7-4284-8FB5-400EB8E021E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{18B061E8-3161-4D0D-A6C3-81A6C7FB0C4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
     <definedName name="f">Sheet1!$C$2</definedName>
     <definedName name="k">Sheet1!$C$4</definedName>
     <definedName name="n">Sheet1!$C$5</definedName>
-    <definedName name="psi">_xlfn.LAMBDA(_xlpm.x,_xlpm.k,MAX(_xlpm.x-_xlpm.k,))</definedName>
+    <definedName name="p">Sheet1!$I$4</definedName>
     <definedName name="s">Sheet1!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>f</t>
   </si>
@@ -81,12 +78,34 @@
   <si>
     <t>value</t>
   </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>implied</t>
+  </si>
+  <si>
+    <t>valuep</t>
+  </si>
+  <si>
+    <t>impliedp</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +120,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,18 +149,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -143,6 +198,1369 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Implied Volatility</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>implied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.9986983515938099E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9991303766673548E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9994151277397109E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9993777166791004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9987765853972482E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9973056427929918E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9968777298421144E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9995729779350104E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10001193360435243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10001214105216549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.999059045391448E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9990003863038759E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10001799335501931</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10001515909179724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9974144216051802E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10001684118825498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10001889748366183</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9979521651878525E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10002296148539916</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10000715449212727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10000796850078694</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10002087460031353</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9988692618370748E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10002335873483793</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9974537610444891E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10002206120026627</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.997177833919875E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10001987180142768</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9976579689776746E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10001568903124339</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9990059899305428E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10000495344650021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10000390601572311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9980294762008787E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10000837172783798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9976444811474455E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.9991709294954767E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.9999402560396661E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9957024662366764E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9987694861247076E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9991734781377892E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DB9-4D69-819A-E1BCCCB4C0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impliedp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2DB9-4D69-819A-E1BCCCB4C0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1087677551"/>
+        <c:axId val="1087678031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1087677551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087678031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1087678031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087677551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C28A20-DBD5-F92B-690D-B01B4C00C359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,14 +1859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87427FBB-2604-4DC8-8B53-F41D12040260}">
-  <dimension ref="B2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +1874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,15 +1882,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,20 +1904,579 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" cm="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <f t="array" ref="C7">_xll.XLL.BINOMIAL.EUROPEAN(f, s, k, n)</f>
-        <v>3.9880786677039981</v>
-      </c>
-      <c r="D7" s="2" cm="1">
+        <v>3.9880786677071702</v>
+      </c>
+      <c r="D7" s="3">
         <f t="array" ref="D7">IF(k&gt;0,_xll.BLACK.CALL.VALUE(f, s, k),IF(k&lt;0, _xll.BLACK.PUT.VALUE(f, s, -k), f))</f>
         <v>3.987761167674492</v>
       </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7:F47">_xll.ARRAY.SEQUENCE(80, 120)</f>
+        <v>80</v>
+      </c>
+      <c r="G7" s="4" cm="1">
+        <f t="array" ref="G7:G47">_xlfn.MAP(_xlfn.ANCHORARRAY(F7), _xlfn.LAMBDA(_xlpm.k, _xll.XLL.BINOMIAL.EUROPEAN(f, s, -_xlpm.k, n)))</f>
+        <v>3.9875882204585225E-2</v>
+      </c>
+      <c r="H7" s="4" cm="1">
+        <f t="array" ref="H7:H47">_xlfn.MAP(_xlfn.ANCHORARRAY(G7),_xlfn.ANCHORARRAY( F7), _xlfn.LAMBDA(_xlpm.p,_xlpm.k, _xll.BLACK.PUT.IMPLIED(f, _xlpm.p, _xlpm.k)))</f>
+        <v>9.9986983515938099E-2</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" cm="1">
+        <f t="array" ref="C8">_xll.XLL.BINOMIAL.AMERICAN(f, s, k, n)</f>
+        <v>4.1398910505811086</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.6975076926992649E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9.9991303766673548E-2</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8.0029083613975927E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9.9994151277397109E-2</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.11057818495152098</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9.9993777166791004E-2</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.15038583366071256</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9.9987765853972482E-2</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.20142318477064813</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.9973056427929918E-2</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.26611116665871648</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9.9968777298421144E-2</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.34724722582745132</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9.9995729779350104E-2</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.44695838618752021</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.10001193360435243</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>89</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.56777076115997138</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.10001214105216549</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.71217673033959361</v>
+      </c>
+      <c r="H17" s="4">
+        <v>9.999059045391448E-2</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>91</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.88376011274035593</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9.9990003863038759E-2</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>92</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.0855202459190516</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.10001799335501931</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>93</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.3183884784399684</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.10001515909179724</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.5841400087770481</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9.9974144216051802E-2</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.8886366772236536</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.10001684118825498</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.2295358511724306</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.10001889748366183</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>97</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.6078238817443813</v>
+      </c>
+      <c r="H24" s="4">
+        <v>9.9979521651878525E-2</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>98</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3.0289940579657739</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.10002296148539916</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>99</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3.4881101674092676</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.10000715449212727</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3.9880786677071702</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.10000796850078694</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>101</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.5283385939797229</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.10002087460031353</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>102</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.1058374834334304</v>
+      </c>
+      <c r="H29" s="4">
+        <v>9.9988692618370748E-2</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>103</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5.7238663493149042</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.10002335873483793</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>104</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6.3751479718517352</v>
+      </c>
+      <c r="H31" s="4">
+        <v>9.9974537610444891E-2</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>105</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7.0648188078869625</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.10002206120026627</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>106</v>
+      </c>
+      <c r="G33" s="4">
+        <v>7.7838191939227546</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9.997177833919875E-2</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>107</v>
+      </c>
+      <c r="G34" s="4">
+        <v>8.5370249030817291</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.10001987180142768</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>108</v>
+      </c>
+      <c r="G35" s="4">
+        <v>9.315859074701704</v>
+      </c>
+      <c r="H35" s="4">
+        <v>9.9976579689776746E-2</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>109</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10.123636769941864</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.10001568903124339</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>110</v>
+      </c>
+      <c r="G37" s="4">
+        <v>10.953683650913185</v>
+      </c>
+      <c r="H37" s="4">
+        <v>9.9990059899305428E-2</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>111</v>
+      </c>
+      <c r="G38" s="4">
+        <v>11.806762905671052</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.10000495344650021</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>112</v>
+      </c>
+      <c r="G39" s="4">
+        <v>12.679195650392529</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.10000390601572311</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>113</v>
+      </c>
+      <c r="G40" s="4">
+        <v>13.568876171368693</v>
+      </c>
+      <c r="H40" s="4">
+        <v>9.9980294762008787E-2</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>114</v>
+      </c>
+      <c r="G41" s="4">
+        <v>14.475313481083511</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.10000837172783798</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>115</v>
+      </c>
+      <c r="G42" s="4">
+        <v>15.394559923833116</v>
+      </c>
+      <c r="H42" s="4">
+        <v>9.9976444811474455E-2</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>116</v>
+      </c>
+      <c r="G43" s="4">
+        <v>16.326775058583323</v>
+      </c>
+      <c r="H43" s="4">
+        <v>9.9991709294954767E-2</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>117</v>
+      </c>
+      <c r="G44" s="4">
+        <v>17.269453076409039</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9.9999402560396661E-2</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>118</v>
+      </c>
+      <c r="G45" s="4">
+        <v>18.220746709957481</v>
+      </c>
+      <c r="H45" s="4">
+        <v>9.9957024662366764E-2</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>119</v>
+      </c>
+      <c r="G46" s="4">
+        <v>19.18077233029571</v>
+      </c>
+      <c r="H46" s="4">
+        <v>9.9987694861247076E-2</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>120</v>
+      </c>
+      <c r="G47" s="4">
+        <v>20.147263820081108</v>
+      </c>
+      <c r="H47" s="4">
+        <v>9.9991734781377892E-2</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>